--- a/src/main/resources/165-mall4cloud/mall4cloud-common-security_structure.xlsx
+++ b/src/main/resources/165-mall4cloud/mall4cloud-common-security_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="120">
   <si>
     <t>类名</t>
   </si>
@@ -226,13 +226,13 @@
     <t>com.mall4j.cloud.common.security.filter.XssFilter</t>
   </si>
   <si>
-    <t>doFilter(javax.servlet.ServletRequest)</t>
+    <t>doFilter(javax.servlet.ServletRequest,javax.servlet.ServletResponse,javax.servlet.FilterChain)</t>
   </si>
   <si>
     <t>com.mall4j.cloud.common.security.filter.AuthFilter</t>
   </si>
   <si>
-    <t>checkRbac(com.mall4j.cloud.api.auth.bo.UserInfoInTokenBO)</t>
+    <t>checkRbac(com.mall4j.cloud.api.auth.bo.UserInfoInTokenBO,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>feignRequestCheck(javax.servlet.http.HttpServletRequest)</t>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>checkRbac(com.mall4j.cloud.api.auth.bo.UserInfoInTokenBO,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>2</t>
@@ -2833,7 +2830,7 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>112</v>
@@ -2870,7 +2867,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2888,10 +2885,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
@@ -2924,10 +2921,10 @@
         <v>108</v>
       </c>
       <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
         <v>117</v>
-      </c>
-      <c r="D1" t="s">
-        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
@@ -2948,16 +2945,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
-        <v>116</v>
-      </c>
       <c r="C1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
@@ -2987,7 +2984,7 @@
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
@@ -3008,16 +3005,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
         <v>115</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
